--- a/2020-03-22-Germany-Covid19-Prediction.xlsx
+++ b/2020-03-22-Germany-Covid19-Prediction.xlsx
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E2">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,10 +437,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E5">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E6">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E7">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,10 +522,10 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E8">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E9">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="E10">
-        <v>1141</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="E11">
-        <v>1477</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>1911</v>
+        <v>1935</v>
       </c>
       <c r="E12">
-        <v>1911</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>2473</v>
+        <v>2514</v>
       </c>
       <c r="E13">
-        <v>2473</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>3199</v>
+        <v>3266</v>
       </c>
       <c r="E14">
-        <v>3199</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>4140</v>
+        <v>4242</v>
       </c>
       <c r="E15">
-        <v>4140</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>5357</v>
+        <v>5509</v>
       </c>
       <c r="E16">
-        <v>5356</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>6931</v>
+        <v>7156</v>
       </c>
       <c r="E17">
-        <v>6930</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>8968</v>
+        <v>9295</v>
       </c>
       <c r="E18">
-        <v>8967</v>
+        <v>9293</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,10 +709,10 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>11604</v>
+        <v>12073</v>
       </c>
       <c r="E19">
-        <v>11602</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -726,10 +726,10 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>15015</v>
+        <v>15681</v>
       </c>
       <c r="E20">
-        <v>15011</v>
+        <v>15677</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -743,10 +743,10 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>19428</v>
+        <v>20368</v>
       </c>
       <c r="E21">
-        <v>19421</v>
+        <v>20361</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -760,10 +760,10 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>25137</v>
+        <v>26455</v>
       </c>
       <c r="E22">
-        <v>25126</v>
+        <v>26443</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -777,10 +777,10 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>32525</v>
+        <v>34362</v>
       </c>
       <c r="E23">
-        <v>32507</v>
+        <v>34341</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -791,10 +791,10 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>42084</v>
+        <v>44631</v>
       </c>
       <c r="E24">
-        <v>42053</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -805,10 +805,10 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>54453</v>
+        <v>57970</v>
       </c>
       <c r="E25">
-        <v>54401</v>
+        <v>57911</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -819,10 +819,10 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>70456</v>
+        <v>75295</v>
       </c>
       <c r="E26">
-        <v>70369</v>
+        <v>75196</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,10 +833,10 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>91162</v>
+        <v>97797</v>
       </c>
       <c r="E27">
-        <v>91017</v>
+        <v>97630</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -847,10 +847,10 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>117954</v>
+        <v>127025</v>
       </c>
       <c r="E28">
-        <v>117711</v>
+        <v>126743</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -861,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>152620</v>
+        <v>164988</v>
       </c>
       <c r="E29">
-        <v>152213</v>
+        <v>164512</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -875,10 +875,10 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>197474</v>
+        <v>214296</v>
       </c>
       <c r="E30">
-        <v>196793</v>
+        <v>213494</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -889,10 +889,10 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>255510</v>
+        <v>278340</v>
       </c>
       <c r="E31">
-        <v>254371</v>
+        <v>276989</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -903,10 +903,10 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>330602</v>
+        <v>361525</v>
       </c>
       <c r="E32">
-        <v>328697</v>
+        <v>359248</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -917,10 +917,10 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>427763</v>
+        <v>469570</v>
       </c>
       <c r="E33">
-        <v>424579</v>
+        <v>465736</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -931,10 +931,10 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>553479</v>
+        <v>609906</v>
       </c>
       <c r="E34">
-        <v>548160</v>
+        <v>603453</v>
       </c>
     </row>
   </sheetData>

--- a/2020-03-22-Germany-Covid19-Prediction.xlsx
+++ b/2020-03-22-Germany-Covid19-Prediction.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,34 +909,6 @@
         <v>359248</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>469570</v>
-      </c>
-      <c r="E33">
-        <v>465736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>609906</v>
-      </c>
-      <c r="E34">
-        <v>603453</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
